--- a/features-list.xlsx
+++ b/features-list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\flu-shot-learning-predict-h1n1-and-seasonal-flu-vaccines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study-cloud\coding\flu-shot-learning-predict-h1n1-and-seasonal-flu-vaccines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68C9F63-3042-4A72-B0B1-38E7824D055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5079E8E7-0366-4206-BB97-86E6C57972FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9610" yWindow="0" windowWidth="9630" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9630" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>h1n1_concern</t>
   </si>
@@ -152,6 +152,27 @@
   </si>
   <si>
     <t>(28) cton + si: 0 + knn</t>
+  </si>
+  <si>
+    <t>26, 40, 50, 60, 70</t>
+  </si>
+  <si>
+    <t>cton + med</t>
+  </si>
+  <si>
+    <t>cton + con0</t>
+  </si>
+  <si>
+    <t>onehot</t>
+  </si>
+  <si>
+    <t>onehot (drop 1st)</t>
+  </si>
+  <si>
+    <t>50, 75, 100</t>
+  </si>
+  <si>
+    <t>6, 12, 14, 16</t>
   </si>
 </sst>
 </file>
@@ -514,16 +535,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -750,7 +771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -764,7 +785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -778,7 +799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -792,7 +813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -806,7 +827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -820,7 +841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -834,7 +855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -845,10 +866,13 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -859,10 +883,13 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -873,10 +900,10 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -887,10 +914,10 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -903,8 +930,11 @@
       <c r="D27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -918,7 +948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -929,10 +959,10 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -946,7 +976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -960,7 +990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
